--- a/data/trans_orig/IP07A05-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07A05-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEA7C406-2DC8-4CB5-A636-305810F065CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B151F450-C90B-43C8-ADA1-D164763739DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5D04CF70-5DC0-473A-9912-75982479DECF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B99BF304-1349-4E51-8E9A-CA3E7DD64AC9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="644">
   <si>
     <t>Menores según frecuencia de sentirse satisfecho con su vida en 2007 (Tasa respuesta: 47,34%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Muchísimo</t>
@@ -76,28 +76,28 @@
     <t>44,6%</t>
   </si>
   <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
   </si>
   <si>
     <t>25,81%</t>
   </si>
   <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
   </si>
   <si>
     <t>34,8%</t>
   </si>
   <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>49,91%</t>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
   </si>
   <si>
     <t>Mucho</t>
@@ -106,28 +106,28 @@
     <t>49,38%</t>
   </si>
   <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
   </si>
   <si>
     <t>74,19%</t>
   </si>
   <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
   </si>
   <si>
     <t>62,31%</t>
   </si>
   <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
   </si>
   <si>
     <t>Moderadamente</t>
@@ -139,7 +139,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>31,0%</t>
+    <t>28,95%</t>
   </si>
   <si>
     <t>0%</t>
@@ -151,7 +151,7 @@
     <t>2,88%</t>
   </si>
   <si>
-    <t>16,86%</t>
+    <t>14,75%</t>
   </si>
   <si>
     <t>Poco</t>
@@ -169,1795 +169,1807 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>32,15%</t>
   </si>
   <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
   </si>
   <si>
     <t>35,73%</t>
   </si>
   <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
   </si>
   <si>
     <t>33,66%</t>
   </si>
   <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
   </si>
   <si>
     <t>58,78%</t>
   </si>
   <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
   </si>
   <si>
     <t>56,41%</t>
   </si>
   <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>66,13%</t>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
   </si>
   <si>
     <t>57,78%</t>
   </si>
   <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
   </si>
   <si>
     <t>8,25%</t>
   </si>
   <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
   </si>
   <si>
     <t>6,63%</t>
   </si>
   <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>53,09%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>57,19%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>54,99%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse satisfecho con su vida en 2012 (Tasa respuesta: 44,69%)</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>62,04%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>58,36%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>67,9%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse satisfecho con su vida en 2016 (Tasa respuesta: 47,13%)</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>57,59%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>52,78%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>54,35%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
     <t>2,57%</t>
   </si>
   <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>49,67%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
     <t>6,27%</t>
   </si>
   <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>54,69%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>55,42%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
   </si>
   <si>
     <t>2,32%</t>
   </si>
   <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse satisfecho con su vida en 2012 (Tasa respuesta: 44,69%)</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>54,9%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>58,36%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>63,87%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>59,89%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse satisfecho con su vida en 2015 (Tasa respuesta: 47,13%)</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>59,42%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>58,73%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>59,75%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>54,81%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>59,84%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
+    <t>1,16%</t>
   </si>
   <si>
     <t>0,4%</t>
   </si>
   <si>
-    <t>1,29%</t>
+    <t>0,97%</t>
   </si>
 </sst>
 </file>
@@ -2369,7 +2381,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25651098-1946-4994-91E0-DAB4B5ADF38B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3575759-A415-4D4B-B159-A3C86211CAFF}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2990,7 +3002,7 @@
         <v>32</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3011,7 +3023,7 @@
         <v>34</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -3020,13 +3032,13 @@
         <v>605</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -3035,13 +3047,13 @@
         <v>605</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,7 +3109,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3109,13 +3121,13 @@
         <v>41332</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H16" s="7">
         <v>68</v>
@@ -3124,13 +3136,13 @@
         <v>43757</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M16" s="7">
         <v>131</v>
@@ -3139,13 +3151,13 @@
         <v>85090</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3160,13 +3172,13 @@
         <v>44807</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H17" s="7">
         <v>76</v>
@@ -3175,13 +3187,13 @@
         <v>47737</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M17" s="7">
         <v>144</v>
@@ -3190,13 +3202,13 @@
         <v>92545</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3211,13 +3223,13 @@
         <v>10403</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H18" s="7">
         <v>17</v>
@@ -3226,13 +3238,13 @@
         <v>10530</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M18" s="7">
         <v>33</v>
@@ -3241,13 +3253,13 @@
         <v>20933</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3262,13 +3274,13 @@
         <v>2014</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -3277,13 +3289,13 @@
         <v>1975</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -3292,13 +3304,13 @@
         <v>3989</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3313,13 +3325,13 @@
         <v>680</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3328,13 +3340,13 @@
         <v>647</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -3343,13 +3355,13 @@
         <v>1326</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3405,7 +3417,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3417,13 +3429,13 @@
         <v>26058</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H22" s="7">
         <v>37</v>
@@ -3432,13 +3444,13 @@
         <v>23160</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="M22" s="7">
         <v>79</v>
@@ -3447,13 +3459,13 @@
         <v>49218</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3468,13 +3480,13 @@
         <v>31726</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H23" s="7">
         <v>51</v>
@@ -3483,13 +3495,13 @@
         <v>30635</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M23" s="7">
         <v>100</v>
@@ -3498,13 +3510,13 @@
         <v>62361</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3519,13 +3531,13 @@
         <v>7863</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H24" s="7">
         <v>11</v>
@@ -3534,13 +3546,13 @@
         <v>6630</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M24" s="7">
         <v>23</v>
@@ -3549,13 +3561,13 @@
         <v>14493</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3570,13 +3582,13 @@
         <v>647</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -3591,7 +3603,7 @@
         <v>34</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -3600,13 +3612,13 @@
         <v>647</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3627,7 +3639,7 @@
         <v>34</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -3636,13 +3648,13 @@
         <v>632</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -3651,13 +3663,13 @@
         <v>632</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3713,7 +3725,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3725,13 +3737,13 @@
         <v>44323</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="H28" s="7">
         <v>49</v>
@@ -3740,13 +3752,13 @@
         <v>38044</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M28" s="7">
         <v>113</v>
@@ -3755,13 +3767,13 @@
         <v>82366</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3776,13 +3788,13 @@
         <v>48150</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>168</v>
+        <v>16</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H29" s="7">
         <v>59</v>
@@ -3791,13 +3803,13 @@
         <v>44792</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M29" s="7">
         <v>129</v>
@@ -3806,13 +3818,13 @@
         <v>92941</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3827,13 +3839,13 @@
         <v>6090</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H30" s="7">
         <v>9</v>
@@ -3842,13 +3854,13 @@
         <v>6935</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M30" s="7">
         <v>18</v>
@@ -3857,13 +3869,13 @@
         <v>13025</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3878,13 +3890,13 @@
         <v>679</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H31" s="7">
         <v>3</v>
@@ -3893,13 +3905,13 @@
         <v>2156</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>99</v>
+        <v>191</v>
       </c>
       <c r="M31" s="7">
         <v>4</v>
@@ -3908,13 +3920,13 @@
         <v>2834</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3935,7 +3947,7 @@
         <v>34</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -3950,7 +3962,7 @@
         <v>34</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -3965,7 +3977,7 @@
         <v>34</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4033,13 +4045,13 @@
         <v>139413</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="H34" s="7">
         <v>185</v>
@@ -4048,13 +4060,13 @@
         <v>126340</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M34" s="7">
         <v>396</v>
@@ -4063,13 +4075,13 @@
         <v>265754</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4084,13 +4096,13 @@
         <v>170885</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H35" s="7">
         <v>241</v>
@@ -4099,13 +4111,13 @@
         <v>161950</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M35" s="7">
         <v>496</v>
@@ -4114,13 +4126,13 @@
         <v>332835</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4135,13 +4147,13 @@
         <v>30717</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="H36" s="7">
         <v>42</v>
@@ -4150,13 +4162,13 @@
         <v>27341</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="M36" s="7">
         <v>88</v>
@@ -4165,13 +4177,13 @@
         <v>58057</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4186,13 +4198,13 @@
         <v>3893</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="H37" s="7">
         <v>6</v>
@@ -4201,13 +4213,13 @@
         <v>4130</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>226</v>
+        <v>180</v>
       </c>
       <c r="M37" s="7">
         <v>12</v>
@@ -4216,13 +4228,13 @@
         <v>8023</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>228</v>
+        <v>120</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4237,13 +4249,13 @@
         <v>680</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H38" s="7">
         <v>3</v>
@@ -4252,13 +4264,13 @@
         <v>1884</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="M38" s="7">
         <v>4</v>
@@ -4267,13 +4279,13 @@
         <v>2563</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4329,7 +4341,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -4350,7 +4362,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C09241B0-307D-41CC-A9AB-F871452F7265}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E933D2A0-24BB-4494-96B0-D5906023143F}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4367,7 +4379,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4474,13 +4486,13 @@
         <v>3501</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -4489,13 +4501,13 @@
         <v>2299</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -4504,13 +4516,13 @@
         <v>5800</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>246</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4525,13 +4537,13 @@
         <v>9988</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H5" s="7">
         <v>9</v>
@@ -4540,13 +4552,13 @@
         <v>7494</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M5" s="7">
         <v>20</v>
@@ -4555,13 +4567,13 @@
         <v>17482</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4576,13 +4588,13 @@
         <v>1001</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -4591,13 +4603,13 @@
         <v>925</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -4606,13 +4618,13 @@
         <v>1926</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>260</v>
+        <v>107</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4633,7 +4645,7 @@
         <v>34</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4648,7 +4660,7 @@
         <v>34</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -4663,7 +4675,7 @@
         <v>34</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4684,7 +4696,7 @@
         <v>34</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -4693,13 +4705,13 @@
         <v>1225</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -4708,13 +4720,13 @@
         <v>1225</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4782,13 +4794,13 @@
         <v>21621</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>22</v>
+        <v>271</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H10" s="7">
         <v>28</v>
@@ -4797,13 +4809,13 @@
         <v>19857</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>166</v>
+        <v>273</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="M10" s="7">
         <v>60</v>
@@ -4812,13 +4824,13 @@
         <v>41478</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4833,13 +4845,13 @@
         <v>31371</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="H11" s="7">
         <v>42</v>
@@ -4848,13 +4860,13 @@
         <v>30042</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="M11" s="7">
         <v>87</v>
@@ -4863,13 +4875,13 @@
         <v>61413</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4884,13 +4896,13 @@
         <v>3228</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -4899,13 +4911,13 @@
         <v>3086</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="M12" s="7">
         <v>9</v>
@@ -4914,13 +4926,13 @@
         <v>6314</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4941,7 +4953,7 @@
         <v>34</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -4950,13 +4962,13 @@
         <v>697</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -4965,13 +4977,13 @@
         <v>697</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4986,13 +4998,13 @@
         <v>1955</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>231</v>
+        <v>302</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5007,7 +5019,7 @@
         <v>34</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -5016,13 +5028,13 @@
         <v>1955</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5078,7 +5090,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5090,13 +5102,13 @@
         <v>33817</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="H16" s="7">
         <v>57</v>
@@ -5105,13 +5117,13 @@
         <v>37918</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="M16" s="7">
         <v>107</v>
@@ -5120,13 +5132,13 @@
         <v>71735</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5141,13 +5153,13 @@
         <v>51842</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="H17" s="7">
         <v>76</v>
@@ -5156,13 +5168,13 @@
         <v>50219</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="M17" s="7">
         <v>153</v>
@@ -5171,13 +5183,13 @@
         <v>102062</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5192,13 +5204,13 @@
         <v>8962</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H18" s="7">
         <v>12</v>
@@ -5207,13 +5219,13 @@
         <v>7702</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="M18" s="7">
         <v>26</v>
@@ -5222,13 +5234,13 @@
         <v>16664</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5243,13 +5255,13 @@
         <v>572</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>157</v>
+        <v>333</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -5258,13 +5270,13 @@
         <v>1335</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -5273,13 +5285,13 @@
         <v>1906</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>334</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5294,13 +5306,13 @@
         <v>1350</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -5309,13 +5321,13 @@
         <v>627</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -5324,13 +5336,13 @@
         <v>1977</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>341</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5386,7 +5398,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5398,13 +5410,13 @@
         <v>33867</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H22" s="7">
         <v>34</v>
@@ -5413,13 +5425,13 @@
         <v>22543</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M22" s="7">
         <v>87</v>
@@ -5428,13 +5440,13 @@
         <v>56410</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>17</v>
+        <v>350</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5449,13 +5461,13 @@
         <v>27301</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="H23" s="7">
         <v>60</v>
@@ -5464,13 +5476,13 @@
         <v>38824</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="M23" s="7">
         <v>103</v>
@@ -5479,13 +5491,13 @@
         <v>66125</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>208</v>
+        <v>360</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5500,13 +5512,13 @@
         <v>5254</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -5515,13 +5527,13 @@
         <v>3822</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="M24" s="7">
         <v>15</v>
@@ -5530,13 +5542,13 @@
         <v>9076</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>364</v>
+        <v>188</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5551,13 +5563,13 @@
         <v>2448</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -5566,13 +5578,13 @@
         <v>678</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -5581,13 +5593,13 @@
         <v>3126</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>371</v>
+        <v>238</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5602,13 +5614,13 @@
         <v>654</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -5617,13 +5629,13 @@
         <v>656</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -5632,13 +5644,13 @@
         <v>1310</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5694,7 +5706,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5706,13 +5718,13 @@
         <v>31356</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H28" s="7">
         <v>39</v>
@@ -5721,13 +5733,13 @@
         <v>30070</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M28" s="7">
         <v>81</v>
@@ -5736,13 +5748,13 @@
         <v>61426</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5757,13 +5769,13 @@
         <v>50606</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H29" s="7">
         <v>65</v>
@@ -5772,13 +5784,13 @@
         <v>50329</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M29" s="7">
         <v>135</v>
@@ -5787,13 +5799,13 @@
         <v>100935</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5808,13 +5820,13 @@
         <v>6858</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H30" s="7">
         <v>12</v>
@@ -5823,13 +5835,13 @@
         <v>10110</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M30" s="7">
         <v>22</v>
@@ -5838,13 +5850,13 @@
         <v>16968</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5859,13 +5871,13 @@
         <v>2355</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>406</v>
+        <v>364</v>
       </c>
       <c r="F31" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -5874,13 +5886,13 @@
         <v>818</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>410</v>
       </c>
       <c r="M31" s="7">
         <v>4</v>
@@ -5889,13 +5901,13 @@
         <v>3173</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5910,7 +5922,7 @@
         <v>1308</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>289</v>
+        <v>413</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>32</v>
@@ -6185,10 +6197,10 @@
         <v>447</v>
       </c>
       <c r="K37" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>448</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>449</v>
       </c>
       <c r="M37" s="7">
         <v>13</v>
@@ -6197,13 +6209,13 @@
         <v>8903</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>450</v>
+        <v>190</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6218,13 +6230,13 @@
         <v>5267</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>454</v>
       </c>
       <c r="H38" s="7">
         <v>3</v>
@@ -6233,13 +6245,13 @@
         <v>2508</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>187</v>
+        <v>364</v>
       </c>
       <c r="M38" s="7">
         <v>11</v>
@@ -6248,13 +6260,13 @@
         <v>7775</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6310,7 +6322,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -6331,7 +6343,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9579D4-2EFC-4C54-8C05-73A7110CD19C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F6F4D4-2861-4114-AF93-2FD1E8F3BF33}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6348,7 +6360,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6455,13 +6467,13 @@
         <v>8004</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>459</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>460</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -6470,13 +6482,13 @@
         <v>8258</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>462</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>463</v>
       </c>
       <c r="M4" s="7">
         <v>18</v>
@@ -6485,13 +6497,13 @@
         <v>16262</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>465</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6506,13 +6518,13 @@
         <v>6310</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>468</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>469</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -6521,13 +6533,13 @@
         <v>4645</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>471</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>472</v>
       </c>
       <c r="M5" s="7">
         <v>13</v>
@@ -6536,13 +6548,13 @@
         <v>10955</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>474</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6563,7 +6575,7 @@
         <v>34</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>365</v>
+        <v>475</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -6614,7 +6626,7 @@
         <v>34</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>365</v>
+        <v>475</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -6665,7 +6677,7 @@
         <v>34</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>365</v>
+        <v>475</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6868,10 +6880,10 @@
         <v>500</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>501</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>502</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -6880,13 +6892,13 @@
         <v>2439</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>504</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>505</v>
       </c>
       <c r="M12" s="7">
         <v>7</v>
@@ -6895,7 +6907,7 @@
         <v>5556</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>332</v>
+        <v>505</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>506</v>
@@ -6922,7 +6934,7 @@
         <v>34</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>508</v>
+        <v>448</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -6937,7 +6949,7 @@
         <v>34</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -6952,7 +6964,7 @@
         <v>34</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6973,7 +6985,7 @@
         <v>34</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>508</v>
+        <v>448</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -6988,7 +7000,7 @@
         <v>34</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -7003,7 +7015,7 @@
         <v>34</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7059,7 +7071,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7071,13 +7083,13 @@
         <v>55391</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>512</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>513</v>
       </c>
       <c r="H16" s="7">
         <v>75</v>
@@ -7086,13 +7098,13 @@
         <v>50050</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>515</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>388</v>
       </c>
       <c r="M16" s="7">
         <v>154</v>
@@ -7173,7 +7185,7 @@
         <v>5509</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>303</v>
+        <v>114</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>528</v>
@@ -7194,7 +7206,7 @@
         <v>531</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>39</v>
+        <v>532</v>
       </c>
       <c r="M18" s="7">
         <v>18</v>
@@ -7203,13 +7215,13 @@
         <v>11761</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>181</v>
+        <v>340</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7224,10 +7236,10 @@
         <v>2339</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>535</v>
+        <v>451</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>536</v>
@@ -7242,7 +7254,7 @@
         <v>537</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>538</v>
@@ -7254,13 +7266,13 @@
         <v>5175</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>528</v>
+        <v>75</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>539</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7275,13 +7287,13 @@
         <v>717</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>108</v>
+        <v>540</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -7296,7 +7308,7 @@
         <v>34</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -7305,13 +7317,13 @@
         <v>717</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7367,7 +7379,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7379,13 +7391,13 @@
         <v>33892</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H22" s="7">
         <v>57</v>
@@ -7394,13 +7406,13 @@
         <v>36583</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M22" s="7">
         <v>105</v>
@@ -7409,13 +7421,13 @@
         <v>70474</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7430,13 +7442,13 @@
         <v>39069</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H23" s="7">
         <v>42</v>
@@ -7445,13 +7457,13 @@
         <v>27460</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="M23" s="7">
         <v>96</v>
@@ -7460,13 +7472,13 @@
         <v>66529</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7481,10 +7493,10 @@
         <v>2811</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>563</v>
+        <v>369</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>564</v>
@@ -7502,7 +7514,7 @@
         <v>566</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>64</v>
+        <v>567</v>
       </c>
       <c r="M24" s="7">
         <v>13</v>
@@ -7511,7 +7523,7 @@
         <v>8634</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>567</v>
+        <v>440</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>568</v>
@@ -7547,10 +7559,10 @@
         <v>1845</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>66</v>
+        <v>572</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>572</v>
+        <v>32</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>573</v>
@@ -7565,10 +7577,10 @@
         <v>574</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>575</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7583,13 +7595,13 @@
         <v>653</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>578</v>
+        <v>338</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -7604,7 +7616,7 @@
         <v>34</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -7613,13 +7625,13 @@
         <v>653</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>537</v>
+        <v>578</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7675,7 +7687,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7687,13 +7699,13 @@
         <v>46465</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>580</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>581</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>582</v>
       </c>
       <c r="H28" s="7">
         <v>51</v>
@@ -7702,13 +7714,13 @@
         <v>38792</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>583</v>
       </c>
-      <c r="K28" s="7" t="s">
-        <v>584</v>
-      </c>
       <c r="L28" s="7" t="s">
-        <v>585</v>
+        <v>57</v>
       </c>
       <c r="M28" s="7">
         <v>114</v>
@@ -7717,13 +7729,13 @@
         <v>85257</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>586</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7738,13 +7750,13 @@
         <v>48362</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>588</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>589</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>590</v>
       </c>
       <c r="H29" s="7">
         <v>72</v>
@@ -7753,13 +7765,13 @@
         <v>55396</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>591</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>592</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>593</v>
       </c>
       <c r="M29" s="7">
         <v>136</v>
@@ -7768,13 +7780,13 @@
         <v>103758</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>594</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>595</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7789,13 +7801,13 @@
         <v>6009</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>597</v>
       </c>
-      <c r="F30" s="7" t="s">
-        <v>334</v>
-      </c>
       <c r="G30" s="7" t="s">
-        <v>365</v>
+        <v>598</v>
       </c>
       <c r="H30" s="7">
         <v>15</v>
@@ -7804,13 +7816,13 @@
         <v>11223</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="M30" s="7">
         <v>24</v>
@@ -7819,13 +7831,13 @@
         <v>17232</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7840,13 +7852,13 @@
         <v>636</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>535</v>
+        <v>451</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -7855,13 +7867,13 @@
         <v>772</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="M31" s="7">
         <v>2</v>
@@ -7870,13 +7882,13 @@
         <v>1407</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>108</v>
+        <v>540</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>534</v>
+        <v>449</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7897,7 +7909,7 @@
         <v>34</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -7906,13 +7918,13 @@
         <v>1409</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>501</v>
+        <v>608</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>374</v>
+        <v>609</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -7921,13 +7933,13 @@
         <v>1409</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>108</v>
+        <v>540</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7995,13 +8007,13 @@
         <v>171921</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="H34" s="7">
         <v>225</v>
@@ -8010,13 +8022,13 @@
         <v>156817</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="M34" s="7">
         <v>461</v>
@@ -8025,13 +8037,13 @@
         <v>328738</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8046,13 +8058,13 @@
         <v>164169</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="H35" s="7">
         <v>236</v>
@@ -8061,13 +8073,13 @@
         <v>165611</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>316</v>
+        <v>625</v>
       </c>
       <c r="M35" s="7">
         <v>460</v>
@@ -8076,13 +8088,13 @@
         <v>329779</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8097,13 +8109,13 @@
         <v>17446</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>181</v>
+        <v>340</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>260</v>
+        <v>630</v>
       </c>
       <c r="H36" s="7">
         <v>38</v>
@@ -8112,13 +8124,13 @@
         <v>26760</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="M36" s="7">
         <v>63</v>
@@ -8127,13 +8139,13 @@
         <v>44206</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8148,13 +8160,13 @@
         <v>4492</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>508</v>
+        <v>572</v>
       </c>
       <c r="H37" s="7">
         <v>8</v>
@@ -8163,13 +8175,13 @@
         <v>5453</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>416</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>634</v>
+        <v>121</v>
       </c>
       <c r="M37" s="7">
         <v>14</v>
@@ -8178,13 +8190,13 @@
         <v>9946</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8199,13 +8211,13 @@
         <v>1370</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -8214,13 +8226,13 @@
         <v>1409</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>639</v>
+        <v>228</v>
       </c>
       <c r="M38" s="7">
         <v>4</v>
@@ -8229,13 +8241,13 @@
         <v>2780</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>148</v>
+        <v>643</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8291,7 +8303,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
